--- a/stress_test_bystrat.xlsx
+++ b/stress_test_bystrat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\x Solina-Marchetti\Input dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB055F2-9E03-457F-AD53-5F24AB51A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA417554-8D1A-457D-A647-AD778A934E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="940" firstSheet="18" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="940" firstSheet="18" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E7U&amp;&amp;RUS_PCONF" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10465" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10529" uniqueCount="175">
   <si>
     <t>Sector/Block/Factor</t>
   </si>
@@ -683,6 +683,9 @@
   <si>
     <t>81.03%</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
@@ -22163,13 +22166,31 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -22685,119 +22706,502 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-8</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>-6</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>-10</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.53E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>-12</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7">
+        <v>9.35E-2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>46022</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>22</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.01E-2</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-23</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="7">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>31</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="N37" s="2">
+        <v>-8</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-47</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>-85</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-31</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="N41" s="2">
+        <v>-36</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.2923</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-122</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="N43" s="2">
+        <v>-20</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>4</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>-339</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3"/>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
